--- a/data-request/dreq_AFR.xlsx
+++ b/data-request/dreq_AFR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="405">
   <si>
     <t>frequency</t>
   </si>
@@ -795,7 +795,7 @@
     <t>Northward Wind at 250m</t>
   </si>
   <si>
-    <t>Northward Wind at 350m</t>
+    <t>Northward Wind at 300m</t>
   </si>
   <si>
     <t>Northward Wind at 50m</t>
@@ -1204,6 +1204,9 @@
   </si>
   <si>
     <t>Eastward Wind at 250m</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 300m</t>
   </si>
   <si>
     <t>Daily Maximum Near-Surface Wind Speed of Gust</t>
@@ -5709,10 +5712,10 @@
         <v>370</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F2" t="s">
         <v>73</v>
@@ -5729,7 +5732,7 @@
         <v>371</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>64</v>
@@ -5761,7 +5764,7 @@
         <v>372</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>66</v>
@@ -5793,7 +5796,7 @@
         <v>373</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>64</v>
@@ -5825,7 +5828,7 @@
         <v>374</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>66</v>
@@ -6280,7 +6283,7 @@
         <v>264</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F36" t="s">
         <v>73</v>
@@ -6480,7 +6483,7 @@
         <v>55</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F46" t="s">
         <v>73</v>
@@ -6500,7 +6503,7 @@
         <v>55</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F47" t="s">
         <v>73</v>
@@ -6994,7 +6997,7 @@
         <v>36</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>61</v>
@@ -7634,7 +7637,7 @@
         <v>368</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>61</v>
@@ -7666,7 +7669,7 @@
         <v>369</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>58</v>

--- a/data-request/dreq_AFR.xlsx
+++ b/data-request/dreq_AFR.xlsx
@@ -2880,7 +2880,7 @@
         <v>268</v>
       </c>
       <c r="F45" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:6">

--- a/data-request/dreq_AFR.xlsx
+++ b/data-request/dreq_AFR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="507">
   <si>
     <t>frequency</t>
   </si>
@@ -669,12 +669,39 @@
     <t>Surface Upward Sensible Heat Flux</t>
   </si>
   <si>
-    <t>Specific Humidity</t>
+    <t>Specific Humidity at 1000 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 200 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 250 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 300 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 400 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 500 hPa</t>
   </si>
   <si>
     <t>Specific Humidity at 50m</t>
   </si>
   <si>
+    <t>Specific Humidity at 600 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 700 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 850 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 925 hPa</t>
+  </si>
+  <si>
     <t>Soil Frozen Water Content</t>
   </si>
   <si>
@@ -750,12 +777,39 @@
     <t>Daily Duration of Sunshine</t>
   </si>
   <si>
-    <t>Air Temperature</t>
+    <t>Air Temperature at 1000 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 200 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 250 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 300 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 400 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 500 hPa</t>
   </si>
   <si>
     <t>Air Temperature at 50m</t>
   </si>
   <si>
+    <t>Air Temperature at 600 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 700 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 850 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 925 hPa</t>
+  </si>
+  <si>
     <t>Surface Downward Eastward Wind Stress</t>
   </si>
   <si>
@@ -768,7 +822,7 @@
     <t>Temperature of Soil</t>
   </si>
   <si>
-    <t>Eastward Wind</t>
+    <t>Eastward Wind at 1000 hPa</t>
   </si>
   <si>
     <t>Eastward Wind at 100m</t>
@@ -777,10 +831,37 @@
     <t>Eastward Wind at 150m</t>
   </si>
   <si>
+    <t>Eastward Wind at 200 hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 250 hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 300 hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 400 hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 500 hPa</t>
+  </si>
+  <si>
     <t>Eastward Wind at 50m</t>
   </si>
   <si>
-    <t>Northward Wind</t>
+    <t>Eastward Wind at 600 hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 700 hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 850 hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 925 hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 1000 hPa</t>
   </si>
   <si>
     <t>Northward Wind at 100m</t>
@@ -789,22 +870,103 @@
     <t>Northward Wind at 150m</t>
   </si>
   <si>
+    <t>Northward Wind at 200 hPa</t>
+  </si>
+  <si>
     <t>Northward Wind at 200m</t>
   </si>
   <si>
+    <t>Northward Wind at 250 hPa</t>
+  </si>
+  <si>
     <t>Northward Wind at 250m</t>
   </si>
   <si>
+    <t>Northward Wind at 300 hPa</t>
+  </si>
+  <si>
     <t>Northward Wind at 300m</t>
   </si>
   <si>
+    <t>Northward Wind at 400 hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 500 hPa</t>
+  </si>
+  <si>
     <t>Northward Wind at 50m</t>
   </si>
   <si>
-    <t>Upward Air Velocity</t>
-  </si>
-  <si>
-    <t>Geopotential Height</t>
+    <t>Northward Wind at 600 hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 700 hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 850 hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 925 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 1000 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 200 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 250 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 300 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 400 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 500 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 600 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 700 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 850 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 925 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 1000 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 200 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 250 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 300 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 400 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 500 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 600 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 700 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 850 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 925 hPa</t>
   </si>
   <si>
     <t>Height of Boundary Layer</t>
@@ -1158,6 +1320,30 @@
     <t>Potential Evapotranspiration</t>
   </si>
   <si>
+    <t>Specific Humidity at 10 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 100 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 150 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 20 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 30 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 50 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 70 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 750 hPa</t>
+  </si>
+  <si>
     <t>Lifted Index</t>
   </si>
   <si>
@@ -1200,19 +1386,139 @@
     <t>Percentage of the Grid Cell Occupied by Urban Area</t>
   </si>
   <si>
+    <t>Air Temperature at 10 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 100 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 150 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 20 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 30 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 50 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 70 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 750 hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 10 hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 100 hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 150 hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 20 hPa</t>
+  </si>
+  <si>
     <t>Eastward Wind at 200m</t>
   </si>
   <si>
     <t>Eastward Wind at 250m</t>
   </si>
   <si>
+    <t>Eastward Wind at 30 hPa</t>
+  </si>
+  <si>
     <t>Eastward Wind at 300m</t>
   </si>
   <si>
+    <t>Eastward Wind at 50 hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 70 hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 750 hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 10 hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 100 hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 150 hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 20 hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 30 hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 50 hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 70 hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 750 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 10 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 100 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 150 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 20 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 30 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 50 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 70 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 750 hPa</t>
+  </si>
+  <si>
     <t>Daily Maximum Near-Surface Wind Speed of Gust</t>
   </si>
   <si>
     <t>Surface Roughness Length</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 10 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 100 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 150 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 20 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 30 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 50 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 70 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 750 hPa</t>
   </si>
   <si>
     <t>m2</t>
@@ -2166,7 +2472,7 @@
         <v>213</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>64</v>
@@ -2198,7 +2504,7 @@
         <v>214</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>64</v>
@@ -2276,7 +2582,7 @@
         <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2299,7 +2605,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>57</v>
@@ -2308,7 +2614,7 @@
         <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2331,7 +2637,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>57</v>
@@ -2340,7 +2646,7 @@
         <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2363,7 +2669,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>57</v>
@@ -2372,7 +2678,7 @@
         <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2395,7 +2701,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>57</v>
@@ -2404,7 +2710,7 @@
         <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2427,7 +2733,7 @@
         <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>57</v>
@@ -2436,7 +2742,7 @@
         <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2459,7 +2765,7 @@
         <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>57</v>
@@ -2491,7 +2797,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>57</v>
@@ -2500,7 +2806,7 @@
         <v>64</v>
       </c>
       <c r="F22" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2523,7 +2829,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>57</v>
@@ -2532,7 +2838,7 @@
         <v>64</v>
       </c>
       <c r="F24" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2555,7 +2861,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>57</v>
@@ -2564,7 +2870,7 @@
         <v>64</v>
       </c>
       <c r="F26" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2587,7 +2893,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>57</v>
@@ -2596,7 +2902,7 @@
         <v>64</v>
       </c>
       <c r="F28" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2619,13 +2925,13 @@
         <v>185</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="F30" t="s">
         <v>72</v>
@@ -2637,10 +2943,10 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="F31" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2651,10 +2957,10 @@
         <v>186</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>64</v>
@@ -2683,16 +2989,16 @@
         <v>187</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="F34" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2703,16 +3009,16 @@
         <v>188</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="F35" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2723,13 +3029,13 @@
         <v>186</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="F36" t="s">
         <v>72</v>
@@ -2741,10 +3047,10 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="F37" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2755,13 +3061,13 @@
         <v>189</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="F38" t="s">
         <v>72</v>
@@ -2773,10 +3079,10 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="F39" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2787,13 +3093,13 @@
         <v>190</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="F40" t="s">
         <v>72</v>
@@ -2805,10 +3111,10 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="F41" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2819,13 +3125,13 @@
         <v>190</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="F42" t="s">
         <v>72</v>
@@ -2837,7 +3143,7 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="F43" t="s">
         <v>71</v>
@@ -2851,7 +3157,7 @@
         <v>191</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>56</v>
@@ -2871,13 +3177,13 @@
         <v>28</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="F45" t="s">
         <v>74</v>
@@ -2891,7 +3197,7 @@
         <v>192</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>56</v>
@@ -2911,10 +3217,10 @@
         <v>193</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>64</v>
@@ -2943,7 +3249,7 @@
         <v>194</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>60</v>
@@ -2963,7 +3269,7 @@
         <v>195</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>60</v>
@@ -2983,7 +3289,7 @@
         <v>196</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>60</v>
@@ -3003,7 +3309,7 @@
         <v>197</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>60</v>
@@ -3023,7 +3329,7 @@
         <v>198</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>60</v>
@@ -3043,7 +3349,7 @@
         <v>199</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>60</v>
@@ -3063,7 +3369,7 @@
         <v>33</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>61</v>
@@ -3095,7 +3401,7 @@
         <v>200</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>55</v>
@@ -3115,7 +3421,7 @@
         <v>201</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>55</v>
@@ -3124,7 +3430,7 @@
         <v>64</v>
       </c>
       <c r="F58" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3147,13 +3453,13 @@
         <v>202</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="F60" t="s">
         <v>72</v>
@@ -3165,10 +3471,10 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="F61" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3179,16 +3485,16 @@
         <v>203</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="F62" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3199,13 +3505,13 @@
         <v>204</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="F63" t="s">
         <v>72</v>
@@ -3217,10 +3523,10 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="F64" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3231,13 +3537,13 @@
         <v>205</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>269</v>
+        <v>323</v>
       </c>
       <c r="F65" t="s">
         <v>74</v>
@@ -3249,7 +3555,7 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
-        <v>270</v>
+        <v>324</v>
       </c>
       <c r="F66" t="s">
         <v>75</v>
@@ -3263,7 +3569,7 @@
         <v>35</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>62</v>
@@ -3272,7 +3578,7 @@
         <v>64</v>
       </c>
       <c r="F67" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3295,7 +3601,7 @@
         <v>35</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>62</v>
@@ -3304,7 +3610,7 @@
         <v>64</v>
       </c>
       <c r="F69" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3327,7 +3633,7 @@
         <v>35</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>62</v>
@@ -3336,7 +3642,7 @@
         <v>64</v>
       </c>
       <c r="F71" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3359,7 +3665,7 @@
         <v>35</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>62</v>
@@ -3368,7 +3674,7 @@
         <v>64</v>
       </c>
       <c r="F73" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3391,7 +3697,7 @@
         <v>35</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>62</v>
@@ -3400,7 +3706,7 @@
         <v>64</v>
       </c>
       <c r="F75" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3423,7 +3729,7 @@
         <v>35</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>62</v>
@@ -3432,7 +3738,7 @@
         <v>64</v>
       </c>
       <c r="F77" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3455,7 +3761,7 @@
         <v>35</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>62</v>
@@ -3487,7 +3793,7 @@
         <v>35</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>62</v>
@@ -3496,7 +3802,7 @@
         <v>64</v>
       </c>
       <c r="F81" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3519,7 +3825,7 @@
         <v>35</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>62</v>
@@ -3528,7 +3834,7 @@
         <v>64</v>
       </c>
       <c r="F83" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3551,7 +3857,7 @@
         <v>35</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>62</v>
@@ -3560,7 +3866,7 @@
         <v>64</v>
       </c>
       <c r="F85" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3583,7 +3889,7 @@
         <v>35</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>62</v>
@@ -3592,7 +3898,7 @@
         <v>64</v>
       </c>
       <c r="F87" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3615,7 +3921,7 @@
         <v>206</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>59</v>
@@ -3635,7 +3941,7 @@
         <v>207</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>59</v>
@@ -3655,7 +3961,7 @@
         <v>208</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>62</v>
@@ -3687,13 +3993,13 @@
         <v>209</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="F93" t="s">
         <v>72</v>
@@ -3705,10 +4011,10 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="F94" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3719,7 +4025,7 @@
         <v>36</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>61</v>
@@ -3728,7 +4034,7 @@
         <v>64</v>
       </c>
       <c r="F95" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3751,7 +4057,7 @@
         <v>36</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>61</v>
@@ -3783,7 +4089,7 @@
         <v>36</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>61</v>
@@ -3815,7 +4121,7 @@
         <v>36</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>61</v>
@@ -3824,7 +4130,7 @@
         <v>64</v>
       </c>
       <c r="F101" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3847,7 +4153,7 @@
         <v>36</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>61</v>
@@ -3856,7 +4162,7 @@
         <v>64</v>
       </c>
       <c r="F103" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3879,7 +4185,7 @@
         <v>36</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>61</v>
@@ -3888,7 +4194,7 @@
         <v>64</v>
       </c>
       <c r="F105" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3911,7 +4217,7 @@
         <v>36</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>61</v>
@@ -3920,7 +4226,7 @@
         <v>64</v>
       </c>
       <c r="F107" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3943,7 +4249,7 @@
         <v>36</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>61</v>
@@ -3952,7 +4258,7 @@
         <v>64</v>
       </c>
       <c r="F109" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3975,7 +4281,7 @@
         <v>36</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>61</v>
@@ -4007,7 +4313,7 @@
         <v>36</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>61</v>
@@ -4016,7 +4322,7 @@
         <v>64</v>
       </c>
       <c r="F113" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4039,7 +4345,7 @@
         <v>36</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>61</v>
@@ -4048,7 +4354,7 @@
         <v>64</v>
       </c>
       <c r="F115" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4071,7 +4377,7 @@
         <v>36</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>61</v>
@@ -4080,7 +4386,7 @@
         <v>64</v>
       </c>
       <c r="F117" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4103,7 +4409,7 @@
         <v>36</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>61</v>
@@ -4112,7 +4418,7 @@
         <v>64</v>
       </c>
       <c r="F119" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4135,7 +4441,7 @@
         <v>37</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>61</v>
@@ -4144,7 +4450,7 @@
         <v>64</v>
       </c>
       <c r="F121" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4167,7 +4473,7 @@
         <v>37</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>61</v>
@@ -4199,7 +4505,7 @@
         <v>37</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>61</v>
@@ -4231,7 +4537,7 @@
         <v>37</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>61</v>
@@ -4240,7 +4546,7 @@
         <v>64</v>
       </c>
       <c r="F127" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4263,7 +4569,7 @@
         <v>37</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>61</v>
@@ -4295,7 +4601,7 @@
         <v>37</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>61</v>
@@ -4304,7 +4610,7 @@
         <v>64</v>
       </c>
       <c r="F131" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4327,7 +4633,7 @@
         <v>37</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>61</v>
@@ -4359,7 +4665,7 @@
         <v>37</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>61</v>
@@ -4368,7 +4674,7 @@
         <v>64</v>
       </c>
       <c r="F135" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4391,7 +4697,7 @@
         <v>37</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>61</v>
@@ -4423,7 +4729,7 @@
         <v>37</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>61</v>
@@ -4432,7 +4738,7 @@
         <v>64</v>
       </c>
       <c r="F139" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4455,7 +4761,7 @@
         <v>37</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>61</v>
@@ -4464,7 +4770,7 @@
         <v>64</v>
       </c>
       <c r="F141" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4487,7 +4793,7 @@
         <v>37</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>61</v>
@@ -4519,7 +4825,7 @@
         <v>37</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>61</v>
@@ -4528,7 +4834,7 @@
         <v>64</v>
       </c>
       <c r="F145" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4551,7 +4857,7 @@
         <v>37</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>254</v>
+        <v>294</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>61</v>
@@ -4560,7 +4866,7 @@
         <v>64</v>
       </c>
       <c r="F147" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4583,7 +4889,7 @@
         <v>37</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>61</v>
@@ -4592,7 +4898,7 @@
         <v>64</v>
       </c>
       <c r="F149" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4615,7 +4921,7 @@
         <v>37</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>61</v>
@@ -4624,7 +4930,7 @@
         <v>64</v>
       </c>
       <c r="F151" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4647,7 +4953,7 @@
         <v>210</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>61</v>
@@ -4656,7 +4962,7 @@
         <v>64</v>
       </c>
       <c r="F153" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4679,7 +4985,7 @@
         <v>210</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>61</v>
@@ -4688,7 +4994,7 @@
         <v>64</v>
       </c>
       <c r="F155" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4711,7 +5017,7 @@
         <v>210</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>61</v>
@@ -4720,7 +5026,7 @@
         <v>64</v>
       </c>
       <c r="F157" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4743,7 +5049,7 @@
         <v>210</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>61</v>
@@ -4752,7 +5058,7 @@
         <v>64</v>
       </c>
       <c r="F159" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4775,7 +5081,7 @@
         <v>210</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>261</v>
+        <v>301</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>61</v>
@@ -4784,7 +5090,7 @@
         <v>64</v>
       </c>
       <c r="F161" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4807,7 +5113,7 @@
         <v>210</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>61</v>
@@ -4816,7 +5122,7 @@
         <v>64</v>
       </c>
       <c r="F163" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4839,7 +5145,7 @@
         <v>210</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>61</v>
@@ -4848,7 +5154,7 @@
         <v>64</v>
       </c>
       <c r="F165" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4871,7 +5177,7 @@
         <v>210</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>61</v>
@@ -4880,7 +5186,7 @@
         <v>64</v>
       </c>
       <c r="F167" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4903,7 +5209,7 @@
         <v>210</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>61</v>
@@ -4912,7 +5218,7 @@
         <v>64</v>
       </c>
       <c r="F169" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4935,7 +5241,7 @@
         <v>210</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>261</v>
+        <v>306</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>61</v>
@@ -4944,7 +5250,7 @@
         <v>64</v>
       </c>
       <c r="F171" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4967,7 +5273,7 @@
         <v>211</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>262</v>
+        <v>307</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>58</v>
@@ -4976,7 +5282,7 @@
         <v>64</v>
       </c>
       <c r="F173" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4999,7 +5305,7 @@
         <v>211</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>58</v>
@@ -5008,7 +5314,7 @@
         <v>64</v>
       </c>
       <c r="F175" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5031,7 +5337,7 @@
         <v>211</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>262</v>
+        <v>309</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>58</v>
@@ -5040,7 +5346,7 @@
         <v>64</v>
       </c>
       <c r="F177" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5063,7 +5369,7 @@
         <v>211</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>58</v>
@@ -5072,7 +5378,7 @@
         <v>64</v>
       </c>
       <c r="F179" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5095,7 +5401,7 @@
         <v>211</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>262</v>
+        <v>311</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>58</v>
@@ -5104,7 +5410,7 @@
         <v>64</v>
       </c>
       <c r="F181" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5127,7 +5433,7 @@
         <v>211</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>58</v>
@@ -5136,7 +5442,7 @@
         <v>64</v>
       </c>
       <c r="F183" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5159,7 +5465,7 @@
         <v>211</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>262</v>
+        <v>313</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>58</v>
@@ -5168,7 +5474,7 @@
         <v>64</v>
       </c>
       <c r="F185" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5191,7 +5497,7 @@
         <v>211</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>58</v>
@@ -5200,7 +5506,7 @@
         <v>64</v>
       </c>
       <c r="F187" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5223,7 +5529,7 @@
         <v>211</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>262</v>
+        <v>315</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>58</v>
@@ -5232,7 +5538,7 @@
         <v>64</v>
       </c>
       <c r="F189" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5255,7 +5561,7 @@
         <v>211</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>58</v>
@@ -5264,7 +5570,7 @@
         <v>64</v>
       </c>
       <c r="F191" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5287,7 +5593,7 @@
         <v>212</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>263</v>
+        <v>317</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>58</v>
@@ -5703,19 +6009,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>350</v>
+        <v>404</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>399</v>
+        <v>501</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>401</v>
+        <v>503</v>
       </c>
       <c r="F2" t="s">
         <v>73</v>
@@ -5723,16 +6029,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>351</v>
+        <v>405</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>400</v>
+        <v>502</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>64</v>
@@ -5755,16 +6061,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>351</v>
+        <v>405</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>400</v>
+        <v>502</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>66</v>
@@ -5787,16 +6093,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>400</v>
+        <v>502</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>64</v>
@@ -5819,16 +6125,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>374</v>
+        <v>428</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>400</v>
+        <v>502</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>66</v>
@@ -5851,13 +6157,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>353</v>
+        <v>407</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>55</v>
@@ -5866,18 +6172,18 @@
         <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>279</v>
+        <v>333</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>353</v>
+        <v>407</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>376</v>
+        <v>430</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>55</v>
@@ -5886,18 +6192,18 @@
         <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>280</v>
+        <v>334</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>353</v>
+        <v>407</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>377</v>
+        <v>431</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>55</v>
@@ -5906,18 +6212,18 @@
         <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>281</v>
+        <v>335</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>354</v>
+        <v>408</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>58</v>
@@ -5931,19 +6237,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>355</v>
+        <v>409</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>379</v>
+        <v>433</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="F15" t="s">
         <v>70</v>
@@ -5951,13 +6257,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>283</v>
+        <v>337</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>217</v>
+        <v>434</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>57</v>
@@ -5966,7 +6272,7 @@
         <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5983,13 +6289,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>284</v>
+        <v>338</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>217</v>
+        <v>435</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>57</v>
@@ -5998,7 +6304,7 @@
         <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6015,13 +6321,13 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>217</v>
+        <v>436</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>57</v>
@@ -6030,7 +6336,7 @@
         <v>64</v>
       </c>
       <c r="F20" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6047,13 +6353,13 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>217</v>
+        <v>437</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>57</v>
@@ -6062,7 +6368,7 @@
         <v>64</v>
       </c>
       <c r="F22" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6079,13 +6385,13 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>217</v>
+        <v>438</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>57</v>
@@ -6094,7 +6400,7 @@
         <v>64</v>
       </c>
       <c r="F24" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6111,13 +6417,13 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>288</v>
+        <v>342</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>217</v>
+        <v>439</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>57</v>
@@ -6126,7 +6432,7 @@
         <v>64</v>
       </c>
       <c r="F26" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6143,13 +6449,13 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>289</v>
+        <v>343</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>217</v>
+        <v>440</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>57</v>
@@ -6158,7 +6464,7 @@
         <v>64</v>
       </c>
       <c r="F28" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6175,13 +6481,13 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>290</v>
+        <v>344</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>217</v>
+        <v>441</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>57</v>
@@ -6190,7 +6496,7 @@
         <v>64</v>
       </c>
       <c r="F30" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6207,13 +6513,13 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>356</v>
+        <v>410</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>380</v>
+        <v>442</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>62</v>
@@ -6239,13 +6545,13 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>292</v>
+        <v>346</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>356</v>
+        <v>410</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>381</v>
+        <v>443</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>62</v>
@@ -6271,19 +6577,19 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>293</v>
+        <v>347</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>382</v>
+        <v>444</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>402</v>
+        <v>504</v>
       </c>
       <c r="F36" t="s">
         <v>73</v>
@@ -6291,13 +6597,13 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>294</v>
+        <v>348</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>358</v>
+        <v>412</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>383</v>
+        <v>445</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>57</v>
@@ -6311,13 +6617,13 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>295</v>
+        <v>349</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>359</v>
+        <v>413</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>384</v>
+        <v>446</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>60</v>
@@ -6326,18 +6632,18 @@
         <v>63</v>
       </c>
       <c r="F38" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>360</v>
+        <v>414</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>385</v>
+        <v>447</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>60</v>
@@ -6346,18 +6652,18 @@
         <v>63</v>
       </c>
       <c r="F39" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>297</v>
+        <v>351</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>386</v>
+        <v>448</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>60</v>
@@ -6366,18 +6672,18 @@
         <v>63</v>
       </c>
       <c r="F40" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>298</v>
+        <v>352</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>362</v>
+        <v>416</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>387</v>
+        <v>449</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>58</v>
@@ -6391,13 +6697,13 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>299</v>
+        <v>353</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>388</v>
+        <v>450</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>60</v>
@@ -6406,18 +6712,18 @@
         <v>63</v>
       </c>
       <c r="F42" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>300</v>
+        <v>354</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>389</v>
+        <v>451</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>60</v>
@@ -6426,18 +6732,18 @@
         <v>63</v>
       </c>
       <c r="F43" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>301</v>
+        <v>355</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>390</v>
+        <v>452</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>60</v>
@@ -6446,18 +6752,18 @@
         <v>63</v>
       </c>
       <c r="F44" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>302</v>
+        <v>356</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>366</v>
+        <v>420</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>391</v>
+        <v>453</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>55</v>
@@ -6471,19 +6777,19 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>303</v>
+        <v>357</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>367</v>
+        <v>421</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>392</v>
+        <v>454</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>403</v>
+        <v>505</v>
       </c>
       <c r="F46" t="s">
         <v>73</v>
@@ -6491,19 +6797,19 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>304</v>
+        <v>358</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>367</v>
+        <v>421</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>393</v>
+        <v>455</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>404</v>
+        <v>506</v>
       </c>
       <c r="F47" t="s">
         <v>73</v>
@@ -6511,13 +6817,13 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>305</v>
+        <v>359</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>244</v>
+        <v>456</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>62</v>
@@ -6526,7 +6832,7 @@
         <v>64</v>
       </c>
       <c r="F48" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -6543,13 +6849,13 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>244</v>
+        <v>457</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>62</v>
@@ -6558,7 +6864,7 @@
         <v>64</v>
       </c>
       <c r="F50" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -6575,13 +6881,13 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>307</v>
+        <v>361</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>244</v>
+        <v>458</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>62</v>
@@ -6590,7 +6896,7 @@
         <v>64</v>
       </c>
       <c r="F52" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6607,13 +6913,13 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>308</v>
+        <v>362</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>244</v>
+        <v>459</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>62</v>
@@ -6622,7 +6928,7 @@
         <v>64</v>
       </c>
       <c r="F54" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -6639,13 +6945,13 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>309</v>
+        <v>363</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>244</v>
+        <v>460</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>62</v>
@@ -6654,7 +6960,7 @@
         <v>64</v>
       </c>
       <c r="F56" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -6671,13 +6977,13 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>310</v>
+        <v>364</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>244</v>
+        <v>461</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>62</v>
@@ -6686,7 +6992,7 @@
         <v>64</v>
       </c>
       <c r="F58" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -6703,13 +7009,13 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>311</v>
+        <v>365</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>244</v>
+        <v>462</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>62</v>
@@ -6718,7 +7024,7 @@
         <v>64</v>
       </c>
       <c r="F60" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -6735,13 +7041,13 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>312</v>
+        <v>366</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>244</v>
+        <v>463</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>62</v>
@@ -6750,7 +7056,7 @@
         <v>64</v>
       </c>
       <c r="F62" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -6767,13 +7073,13 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>313</v>
+        <v>367</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>250</v>
+        <v>464</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>61</v>
@@ -6782,7 +7088,7 @@
         <v>64</v>
       </c>
       <c r="F64" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -6799,13 +7105,13 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>314</v>
+        <v>368</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>250</v>
+        <v>465</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>61</v>
@@ -6814,7 +7120,7 @@
         <v>64</v>
       </c>
       <c r="F66" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -6831,13 +7137,13 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>315</v>
+        <v>369</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>250</v>
+        <v>466</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>61</v>
@@ -6846,7 +7152,7 @@
         <v>64</v>
       </c>
       <c r="F68" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -6863,13 +7169,13 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>316</v>
+        <v>370</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>250</v>
+        <v>467</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>61</v>
@@ -6878,7 +7184,7 @@
         <v>64</v>
       </c>
       <c r="F70" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -6895,13 +7201,13 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>317</v>
+        <v>371</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>394</v>
+        <v>468</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>61</v>
@@ -6927,13 +7233,13 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>318</v>
+        <v>372</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>395</v>
+        <v>469</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>61</v>
@@ -6959,13 +7265,13 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>319</v>
+        <v>373</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>250</v>
+        <v>470</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>61</v>
@@ -6974,7 +7280,7 @@
         <v>64</v>
       </c>
       <c r="F76" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -6991,13 +7297,13 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>320</v>
+        <v>374</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>396</v>
+        <v>471</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>61</v>
@@ -7023,13 +7329,13 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>321</v>
+        <v>375</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>250</v>
+        <v>472</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>61</v>
@@ -7038,7 +7344,7 @@
         <v>64</v>
       </c>
       <c r="F80" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -7055,13 +7361,13 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>322</v>
+        <v>376</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>250</v>
+        <v>473</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>61</v>
@@ -7070,7 +7376,7 @@
         <v>64</v>
       </c>
       <c r="F82" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -7087,13 +7393,13 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>323</v>
+        <v>377</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>250</v>
+        <v>474</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>61</v>
@@ -7102,7 +7408,7 @@
         <v>64</v>
       </c>
       <c r="F84" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -7119,13 +7425,13 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>324</v>
+        <v>378</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>254</v>
+        <v>475</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>61</v>
@@ -7134,7 +7440,7 @@
         <v>64</v>
       </c>
       <c r="F86" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -7151,13 +7457,13 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>254</v>
+        <v>476</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>61</v>
@@ -7166,7 +7472,7 @@
         <v>64</v>
       </c>
       <c r="F88" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -7183,13 +7489,13 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>254</v>
+        <v>477</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>61</v>
@@ -7198,7 +7504,7 @@
         <v>64</v>
       </c>
       <c r="F90" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -7215,13 +7521,13 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>327</v>
+        <v>381</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>254</v>
+        <v>478</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>61</v>
@@ -7230,7 +7536,7 @@
         <v>64</v>
       </c>
       <c r="F92" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -7247,13 +7553,13 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>254</v>
+        <v>479</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>61</v>
@@ -7262,7 +7568,7 @@
         <v>64</v>
       </c>
       <c r="F94" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -7279,13 +7585,13 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>329</v>
+        <v>383</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>254</v>
+        <v>480</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>61</v>
@@ -7294,7 +7600,7 @@
         <v>64</v>
       </c>
       <c r="F96" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -7311,13 +7617,13 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>254</v>
+        <v>481</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>61</v>
@@ -7326,7 +7632,7 @@
         <v>64</v>
       </c>
       <c r="F98" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -7343,13 +7649,13 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>254</v>
+        <v>482</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>61</v>
@@ -7358,7 +7664,7 @@
         <v>64</v>
       </c>
       <c r="F100" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -7375,13 +7681,13 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>332</v>
+        <v>386</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>261</v>
+        <v>483</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>61</v>
@@ -7390,7 +7696,7 @@
         <v>64</v>
       </c>
       <c r="F102" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -7407,13 +7713,13 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>333</v>
+        <v>387</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>261</v>
+        <v>484</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>61</v>
@@ -7422,7 +7728,7 @@
         <v>64</v>
       </c>
       <c r="F104" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -7439,13 +7745,13 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
-        <v>334</v>
+        <v>388</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>261</v>
+        <v>485</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>61</v>
@@ -7454,7 +7760,7 @@
         <v>64</v>
       </c>
       <c r="F106" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -7471,13 +7777,13 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
-        <v>335</v>
+        <v>389</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>261</v>
+        <v>486</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>61</v>
@@ -7486,7 +7792,7 @@
         <v>64</v>
       </c>
       <c r="F108" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -7503,13 +7809,13 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
-        <v>336</v>
+        <v>390</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>261</v>
+        <v>487</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>61</v>
@@ -7518,7 +7824,7 @@
         <v>64</v>
       </c>
       <c r="F110" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -7535,13 +7841,13 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1" t="s">
-        <v>337</v>
+        <v>391</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>261</v>
+        <v>488</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>61</v>
@@ -7550,7 +7856,7 @@
         <v>64</v>
       </c>
       <c r="F112" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -7567,13 +7873,13 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1" t="s">
-        <v>338</v>
+        <v>392</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>261</v>
+        <v>489</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>61</v>
@@ -7582,7 +7888,7 @@
         <v>64</v>
       </c>
       <c r="F114" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -7599,13 +7905,13 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1" t="s">
-        <v>339</v>
+        <v>393</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>261</v>
+        <v>490</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>61</v>
@@ -7614,7 +7920,7 @@
         <v>64</v>
       </c>
       <c r="F116" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -7631,13 +7937,13 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1" t="s">
-        <v>340</v>
+        <v>394</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>368</v>
+        <v>422</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>397</v>
+        <v>491</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>61</v>
@@ -7663,13 +7969,13 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1" t="s">
-        <v>341</v>
+        <v>395</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>369</v>
+        <v>423</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>398</v>
+        <v>492</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>58</v>
@@ -7683,13 +7989,13 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1" t="s">
-        <v>342</v>
+        <v>396</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>262</v>
+        <v>493</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>58</v>
@@ -7698,7 +8004,7 @@
         <v>64</v>
       </c>
       <c r="F121" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -7715,13 +8021,13 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1" t="s">
-        <v>343</v>
+        <v>397</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>262</v>
+        <v>494</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>58</v>
@@ -7730,7 +8036,7 @@
         <v>64</v>
       </c>
       <c r="F123" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -7747,13 +8053,13 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1" t="s">
-        <v>344</v>
+        <v>398</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>262</v>
+        <v>495</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>58</v>
@@ -7762,7 +8068,7 @@
         <v>64</v>
       </c>
       <c r="F125" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -7779,13 +8085,13 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1" t="s">
-        <v>345</v>
+        <v>399</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>262</v>
+        <v>496</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>58</v>
@@ -7794,7 +8100,7 @@
         <v>64</v>
       </c>
       <c r="F127" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -7811,13 +8117,13 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1" t="s">
-        <v>346</v>
+        <v>400</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>262</v>
+        <v>497</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>58</v>
@@ -7826,7 +8132,7 @@
         <v>64</v>
       </c>
       <c r="F129" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -7843,13 +8149,13 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1" t="s">
-        <v>347</v>
+        <v>401</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>262</v>
+        <v>498</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>58</v>
@@ -7858,7 +8164,7 @@
         <v>64</v>
       </c>
       <c r="F131" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -7875,13 +8181,13 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1" t="s">
-        <v>348</v>
+        <v>402</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>262</v>
+        <v>499</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>58</v>
@@ -7890,7 +8196,7 @@
         <v>64</v>
       </c>
       <c r="F133" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -7907,13 +8213,13 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1" t="s">
-        <v>349</v>
+        <v>403</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>262</v>
+        <v>500</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>58</v>
@@ -7922,7 +8228,7 @@
         <v>64</v>
       </c>
       <c r="F135" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="136" spans="1:6">

--- a/data-request/dreq_AFR.xlsx
+++ b/data-request/dreq_AFR.xlsx
@@ -669,37 +669,37 @@
     <t>Surface Upward Sensible Heat Flux</t>
   </si>
   <si>
-    <t>Specific Humidity at 1000 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 200 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 250 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 300 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 400 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 500 hPa</t>
+    <t>Specific Humidity at 1000hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 200hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 250hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 300hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 400hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 500hPa</t>
   </si>
   <si>
     <t>Specific Humidity at 50m</t>
   </si>
   <si>
-    <t>Specific Humidity at 600 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 700 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 850 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 925 hPa</t>
+    <t>Specific Humidity at 600hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 700hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 850hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 925hPa</t>
   </si>
   <si>
     <t>Soil Frozen Water Content</t>
@@ -777,37 +777,37 @@
     <t>Daily Duration of Sunshine</t>
   </si>
   <si>
-    <t>Air Temperature at 1000 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 200 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 250 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 300 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 400 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 500 hPa</t>
+    <t>Air Temperature at 1000hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 200hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 250hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 300hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 400hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 500hPa</t>
   </si>
   <si>
     <t>Air Temperature at 50m</t>
   </si>
   <si>
-    <t>Air Temperature at 600 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 700 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 850 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 925 hPa</t>
+    <t>Air Temperature at 600hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 700hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 850hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 925hPa</t>
   </si>
   <si>
     <t>Surface Downward Eastward Wind Stress</t>
@@ -822,7 +822,7 @@
     <t>Temperature of Soil</t>
   </si>
   <si>
-    <t>Eastward Wind at 1000 hPa</t>
+    <t>Eastward Wind at 1000hPa</t>
   </si>
   <si>
     <t>Eastward Wind at 100m</t>
@@ -831,37 +831,37 @@
     <t>Eastward Wind at 150m</t>
   </si>
   <si>
-    <t>Eastward Wind at 200 hPa</t>
-  </si>
-  <si>
-    <t>Eastward Wind at 250 hPa</t>
-  </si>
-  <si>
-    <t>Eastward Wind at 300 hPa</t>
-  </si>
-  <si>
-    <t>Eastward Wind at 400 hPa</t>
-  </si>
-  <si>
-    <t>Eastward Wind at 500 hPa</t>
+    <t>Eastward Wind at 200hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 250hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 300hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 400hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 500hPa</t>
   </si>
   <si>
     <t>Eastward Wind at 50m</t>
   </si>
   <si>
-    <t>Eastward Wind at 600 hPa</t>
-  </si>
-  <si>
-    <t>Eastward Wind at 700 hPa</t>
-  </si>
-  <si>
-    <t>Eastward Wind at 850 hPa</t>
-  </si>
-  <si>
-    <t>Eastward Wind at 925 hPa</t>
-  </si>
-  <si>
-    <t>Northward Wind at 1000 hPa</t>
+    <t>Eastward Wind at 600hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 700hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 850hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 925hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 1000hPa</t>
   </si>
   <si>
     <t>Northward Wind at 100m</t>
@@ -870,103 +870,103 @@
     <t>Northward Wind at 150m</t>
   </si>
   <si>
-    <t>Northward Wind at 200 hPa</t>
+    <t>Northward Wind at 200hPa</t>
   </si>
   <si>
     <t>Northward Wind at 200m</t>
   </si>
   <si>
-    <t>Northward Wind at 250 hPa</t>
+    <t>Northward Wind at 250hPa</t>
   </si>
   <si>
     <t>Northward Wind at 250m</t>
   </si>
   <si>
-    <t>Northward Wind at 300 hPa</t>
+    <t>Northward Wind at 300hPa</t>
   </si>
   <si>
     <t>Northward Wind at 300m</t>
   </si>
   <si>
-    <t>Northward Wind at 400 hPa</t>
-  </si>
-  <si>
-    <t>Northward Wind at 500 hPa</t>
+    <t>Northward Wind at 400hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 500hPa</t>
   </si>
   <si>
     <t>Northward Wind at 50m</t>
   </si>
   <si>
-    <t>Northward Wind at 600 hPa</t>
-  </si>
-  <si>
-    <t>Northward Wind at 700 hPa</t>
-  </si>
-  <si>
-    <t>Northward Wind at 850 hPa</t>
-  </si>
-  <si>
-    <t>Northward Wind at 925 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 1000 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 200 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 250 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 300 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 400 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 500 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 600 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 700 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 850 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 925 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 1000 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 200 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 250 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 300 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 400 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 500 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 600 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 700 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 850 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 925 hPa</t>
+    <t>Northward Wind at 600hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 700hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 850hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 925hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 1000hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 200hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 250hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 300hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 400hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 500hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 600hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 700hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 850hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 925hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 1000hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 200hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 250hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 300hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 400hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 500hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 600hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 700hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 850hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 925hPa</t>
   </si>
   <si>
     <t>Height of Boundary Layer</t>
@@ -1320,28 +1320,28 @@
     <t>Potential Evapotranspiration</t>
   </si>
   <si>
-    <t>Specific Humidity at 10 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 100 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 150 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 20 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 30 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 50 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 70 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 750 hPa</t>
+    <t>Specific Humidity at 10hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 100hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 150hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 20hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 30hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 50hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 70hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 750hPa</t>
   </si>
   <si>
     <t>Lifted Index</t>
@@ -1386,40 +1386,40 @@
     <t>Percentage of the Grid Cell Occupied by Urban Area</t>
   </si>
   <si>
-    <t>Air Temperature at 10 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 100 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 150 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 20 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 30 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 50 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 70 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 750 hPa</t>
-  </si>
-  <si>
-    <t>Eastward Wind at 10 hPa</t>
-  </si>
-  <si>
-    <t>Eastward Wind at 100 hPa</t>
-  </si>
-  <si>
-    <t>Eastward Wind at 150 hPa</t>
-  </si>
-  <si>
-    <t>Eastward Wind at 20 hPa</t>
+    <t>Air Temperature at 10hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 100hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 150hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 20hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 30hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 50hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 70hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 750hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 10hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 100hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 150hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 20hPa</t>
   </si>
   <si>
     <t>Eastward Wind at 200m</t>
@@ -1428,67 +1428,67 @@
     <t>Eastward Wind at 250m</t>
   </si>
   <si>
-    <t>Eastward Wind at 30 hPa</t>
+    <t>Eastward Wind at 30hPa</t>
   </si>
   <si>
     <t>Eastward Wind at 300m</t>
   </si>
   <si>
-    <t>Eastward Wind at 50 hPa</t>
-  </si>
-  <si>
-    <t>Eastward Wind at 70 hPa</t>
-  </si>
-  <si>
-    <t>Eastward Wind at 750 hPa</t>
-  </si>
-  <si>
-    <t>Northward Wind at 10 hPa</t>
-  </si>
-  <si>
-    <t>Northward Wind at 100 hPa</t>
-  </si>
-  <si>
-    <t>Northward Wind at 150 hPa</t>
-  </si>
-  <si>
-    <t>Northward Wind at 20 hPa</t>
-  </si>
-  <si>
-    <t>Northward Wind at 30 hPa</t>
-  </si>
-  <si>
-    <t>Northward Wind at 50 hPa</t>
-  </si>
-  <si>
-    <t>Northward Wind at 70 hPa</t>
-  </si>
-  <si>
-    <t>Northward Wind at 750 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 10 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 100 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 150 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 20 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 30 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 50 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 70 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 750 hPa</t>
+    <t>Eastward Wind at 50hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 70hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 750hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 10hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 100hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 150hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 20hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 30hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 50hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 70hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 750hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 10hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 100hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 150hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 20hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 30hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 50hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 70hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 750hPa</t>
   </si>
   <si>
     <t>Daily Maximum Near-Surface Wind Speed of Gust</t>
@@ -1497,28 +1497,28 @@
     <t>Surface Roughness Length</t>
   </si>
   <si>
-    <t>Geopotential Height at 10 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 100 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 150 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 20 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 30 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 50 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 70 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 750 hPa</t>
+    <t>Geopotential Height at 10hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 100hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 150hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 20hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 30hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 50hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 70hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 750hPa</t>
   </si>
   <si>
     <t>m2</t>

--- a/data-request/dreq_AFR.xlsx
+++ b/data-request/dreq_AFR.xlsx
@@ -1533,7 +1533,7 @@
     <t>area: mean where land</t>
   </si>
   <si>
-    <t>area: mean where fresh_free_water</t>
+    <t>area: mean where lake_and_inland_sea</t>
   </si>
   <si>
     <t>area: mean where urban</t>

--- a/data-request/dreq_AFR.xlsx
+++ b/data-request/dreq_AFR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="506">
   <si>
     <t>frequency</t>
   </si>
@@ -1531,9 +1531,6 @@
   </si>
   <si>
     <t>area: mean where land</t>
-  </si>
-  <si>
-    <t>area: mean where lake_and_inland_sea</t>
   </si>
   <si>
     <t>area: mean where urban</t>
@@ -6789,7 +6786,7 @@
         <v>55</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>505</v>
+        <v>65</v>
       </c>
       <c r="F46" t="s">
         <v>73</v>
@@ -6809,7 +6806,7 @@
         <v>55</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F47" t="s">
         <v>73</v>

--- a/data-request/dreq_AFR.xlsx
+++ b/data-request/dreq_AFR.xlsx
@@ -2963,10 +2963,10 @@
         <v>318</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>64</v>
+        <v>320</v>
       </c>
       <c r="F32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2975,10 +2975,10 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>63</v>
+        <v>321</v>
       </c>
       <c r="F33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:6">
